--- a/rnaSample/rnaSample_0648.xlsx
+++ b/rnaSample/rnaSample_0648.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -182,7 +182,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/rnaSample/rnaSample_0648.xlsx
+++ b/rnaSample/rnaSample_0648.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DC208B-46B4-D94D-8C62-6FCF19F06ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EABF6E5-2BB6-E84F-80E9-EE2427A9211C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="14240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="14">
   <si>
     <t>harvestDate</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>12.08.11</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H18"/>
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -493,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -519,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -545,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -571,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -597,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -623,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -649,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -675,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -701,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -727,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -753,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -779,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -805,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -831,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -857,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -883,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -909,7 +912,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
